--- a/public/download/07.项目人员工资导入模板.xlsx
+++ b/public/download/07.项目人员工资导入模板.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\old3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kcos/Documents/work/gchf/xn-gchf-company/public/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C2C7FF-BE70-427B-9A84-B042DFC92902}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2840" windowWidth="17350" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="2840" windowWidth="17360" windowHeight="10840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,16 +71,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -92,6 +97,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -142,19 +148,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,26 +437,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.15234375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.84375" style="1"/>
-    <col min="4" max="4" width="11" style="1"/>
-    <col min="5" max="5" width="13.23046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11" style="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1"/>
-    <col min="10" max="10" width="14.3046875" style="1" customWidth="1"/>
-    <col min="11" max="13" width="10.84375" style="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11" style="1"/>
+    <col min="13" max="13" width="11" style="7"/>
     <col min="14" max="14" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,72 +493,71 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
-      <c r="M2" s="6"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/download/07.项目人员工资导入模板.xlsx
+++ b/public/download/07.项目人员工资导入模板.xlsx
@@ -73,8 +73,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -148,16 +148,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -440,19 +440,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="1"/>
-    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="11" style="1"/>
+    <col min="7" max="7" width="11" style="6"/>
     <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="11" style="1"/>
-    <col min="13" max="13" width="11" style="7"/>
+    <col min="13" max="13" width="11" style="5"/>
     <col min="14" max="14" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,19 +470,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -493,66 +494,64 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="E2" s="3"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
